--- a/Docs/Documents/Word Count.xlsx
+++ b/Docs/Documents/Word Count.xlsx
@@ -137,7 +137,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -148,6 +169,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
@@ -155,6 +190,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
@@ -162,6 +211,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
@@ -169,6 +232,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00FFFF"/>
         </patternFill>
       </fill>
@@ -176,6 +253,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
@@ -184,132 +268,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -607,7 +565,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,7 +640,7 @@
       </c>
       <c r="F6">
         <f>SUMIF(C2:C43, "A", B2:B43)</f>
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,7 +658,7 @@
       </c>
       <c r="F7">
         <f>SUMIF(C2:C43, "E", B2:B43)</f>
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,72 +1129,72 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C43">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
